--- a/AO(uqubii).xlsx
+++ b/AO(uqubii).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Maqaa</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>Jabeessaa Caalaa</t>
+  </si>
+  <si>
+    <t>Ida`ama</t>
   </si>
 </sst>
 </file>
@@ -390,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -403,7 +406,7 @@
     <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -417,7 +420,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -428,162 +431,173 @@
         <v>5000</v>
       </c>
       <c r="D2">
-        <f>E2/2</f>
-        <v>27500</v>
-      </c>
-      <c r="E2">
+        <f>C14/2</f>
+        <v>27500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
+        <v>922956646</v>
+      </c>
+      <c r="C3">
+        <v>5000</v>
+      </c>
+      <c r="D3">
+        <f>C14/2</f>
+        <v>27500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1">
+        <v>912861288</v>
+      </c>
+      <c r="C4">
+        <v>5000</v>
+      </c>
+      <c r="D4">
+        <f>C14/2</f>
+        <v>27500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1">
+        <v>912672957</v>
+      </c>
+      <c r="C5">
+        <v>5000</v>
+      </c>
+      <c r="D5">
+        <f>C14/2</f>
+        <v>27500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1">
+        <v>9126995064</v>
+      </c>
+      <c r="C6">
+        <v>5000</v>
+      </c>
+      <c r="D6">
+        <f>C14/2</f>
+        <v>27500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1">
+        <v>977677737</v>
+      </c>
+      <c r="C7">
+        <v>5000</v>
+      </c>
+      <c r="D7">
+        <f>C14/2</f>
+        <v>27500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1">
+        <v>913354650</v>
+      </c>
+      <c r="C8">
+        <v>5000</v>
+      </c>
+      <c r="D8">
+        <f>C14/2</f>
+        <v>27500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1">
+        <v>910814723</v>
+      </c>
+      <c r="C9">
+        <v>5000</v>
+      </c>
+      <c r="D9">
+        <f>C14/2</f>
+        <v>27500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1">
+        <v>928276274</v>
+      </c>
+      <c r="C10">
+        <v>5000</v>
+      </c>
+      <c r="D10">
+        <f>C14/2</f>
+        <v>27500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1">
+        <v>912218826</v>
+      </c>
+      <c r="C11">
+        <v>5000</v>
+      </c>
+      <c r="D11">
+        <f>C14/2</f>
+        <v>27500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1">
+        <v>917372534</v>
+      </c>
+      <c r="C12">
+        <v>5000</v>
+      </c>
+      <c r="D12">
+        <f>C14/2</f>
+        <v>27500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D13">
+        <f>C14/2</f>
+        <v>27500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14">
         <f>SUM(C2:C13)</f>
         <v>55000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1">
-        <v>922956646</v>
-      </c>
-      <c r="C3">
-        <v>5000</v>
-      </c>
-      <c r="D3">
-        <f>E2/2</f>
-        <v>27500</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1">
-        <v>912861288</v>
-      </c>
-      <c r="C4">
-        <v>5000</v>
-      </c>
-      <c r="D4">
-        <f>E2/2</f>
-        <v>27500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1">
-        <v>912672957</v>
-      </c>
-      <c r="C5">
-        <v>5000</v>
-      </c>
-      <c r="D5">
-        <f>E2/2</f>
-        <v>27500</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="1">
-        <v>9126995064</v>
-      </c>
-      <c r="C6">
-        <v>5000</v>
-      </c>
-      <c r="D6">
-        <f>E2/2</f>
-        <v>27500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1">
-        <v>977677737</v>
-      </c>
-      <c r="C7">
-        <v>5000</v>
-      </c>
-      <c r="D7">
-        <f>E2/2</f>
-        <v>27500</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="1">
-        <v>913354650</v>
-      </c>
-      <c r="C8">
-        <v>5000</v>
-      </c>
-      <c r="D8">
-        <f>E2/2</f>
-        <v>27500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="1">
-        <v>910814723</v>
-      </c>
-      <c r="C9">
-        <v>5000</v>
-      </c>
-      <c r="D9">
-        <f>E2/2</f>
-        <v>27500</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="1">
-        <v>928276274</v>
-      </c>
-      <c r="C10">
-        <v>5000</v>
-      </c>
-      <c r="D10">
-        <f>E2/2</f>
-        <v>27500</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="1">
-        <v>912218826</v>
-      </c>
-      <c r="C11">
-        <v>5000</v>
-      </c>
-      <c r="D11">
-        <f>E2/2</f>
-        <v>27500</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="1">
-        <v>917372534</v>
-      </c>
-      <c r="C12">
-        <v>5000</v>
-      </c>
-      <c r="D12">
-        <f>E2/2</f>
-        <v>27500</v>
       </c>
     </row>
   </sheetData>

--- a/AO(uqubii).xlsx
+++ b/AO(uqubii).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Maqaa</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>Ida`ama</t>
+  </si>
+  <si>
+    <t>***</t>
   </si>
 </sst>
 </file>
@@ -396,7 +399,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -595,9 +598,15 @@
       <c r="A14" t="s">
         <v>15</v>
       </c>
+      <c r="B14" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="C14">
         <f>SUM(C2:C13)</f>
         <v>55000</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/AO(uqubii).xlsx
+++ b/AO(uqubii).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Maqaa</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>***</t>
+  </si>
+  <si>
+    <t>Lalisee Magarsaa</t>
   </si>
 </sst>
 </file>
@@ -399,7 +402,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -435,7 +438,7 @@
       </c>
       <c r="D2">
         <f>C14/2</f>
-        <v>27500</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -450,7 +453,7 @@
       </c>
       <c r="D3">
         <f>C14/2</f>
-        <v>27500</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -465,7 +468,7 @@
       </c>
       <c r="D4">
         <f>C14/2</f>
-        <v>27500</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -480,7 +483,7 @@
       </c>
       <c r="D5">
         <f>C14/2</f>
-        <v>27500</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -495,7 +498,7 @@
       </c>
       <c r="D6">
         <f>C14/2</f>
-        <v>27500</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -510,7 +513,7 @@
       </c>
       <c r="D7">
         <f>C14/2</f>
-        <v>27500</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -525,7 +528,7 @@
       </c>
       <c r="D8">
         <f>C14/2</f>
-        <v>27500</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -540,7 +543,7 @@
       </c>
       <c r="D9">
         <f>C14/2</f>
-        <v>27500</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -555,7 +558,7 @@
       </c>
       <c r="D10">
         <f>C14/2</f>
-        <v>27500</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -570,7 +573,7 @@
       </c>
       <c r="D11">
         <f>C14/2</f>
-        <v>27500</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -585,13 +588,22 @@
       </c>
       <c r="D12">
         <f>C14/2</f>
-        <v>27500</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="1">
+        <v>954846351</v>
+      </c>
+      <c r="C13">
+        <v>5000</v>
+      </c>
       <c r="D13">
         <f>C14/2</f>
-        <v>27500</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -603,7 +615,7 @@
       </c>
       <c r="C14">
         <f>SUM(C2:C13)</f>
-        <v>55000</v>
+        <v>60000</v>
       </c>
       <c r="D14" t="s">
         <v>16</v>

--- a/AO(uqubii).xlsx
+++ b/AO(uqubii).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Maqaa</t>
   </si>
@@ -69,12 +69,6 @@
   </si>
   <si>
     <t>Jabeessaa Caalaa</t>
-  </si>
-  <si>
-    <t>Ida`ama</t>
-  </si>
-  <si>
-    <t>***</t>
   </si>
   <si>
     <t>Lalisee Magarsaa</t>
@@ -399,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -437,7 +431,6 @@
         <v>5000</v>
       </c>
       <c r="D2">
-        <f>C14/2</f>
         <v>30000</v>
       </c>
     </row>
@@ -452,7 +445,6 @@
         <v>5000</v>
       </c>
       <c r="D3">
-        <f>C14/2</f>
         <v>30000</v>
       </c>
     </row>
@@ -467,7 +459,6 @@
         <v>5000</v>
       </c>
       <c r="D4">
-        <f>C14/2</f>
         <v>30000</v>
       </c>
     </row>
@@ -482,7 +473,6 @@
         <v>5000</v>
       </c>
       <c r="D5">
-        <f>C14/2</f>
         <v>30000</v>
       </c>
     </row>
@@ -497,7 +487,6 @@
         <v>5000</v>
       </c>
       <c r="D6">
-        <f>C14/2</f>
         <v>30000</v>
       </c>
     </row>
@@ -512,7 +501,6 @@
         <v>5000</v>
       </c>
       <c r="D7">
-        <f>C14/2</f>
         <v>30000</v>
       </c>
     </row>
@@ -527,7 +515,6 @@
         <v>5000</v>
       </c>
       <c r="D8">
-        <f>C14/2</f>
         <v>30000</v>
       </c>
     </row>
@@ -542,7 +529,6 @@
         <v>5000</v>
       </c>
       <c r="D9">
-        <f>C14/2</f>
         <v>30000</v>
       </c>
     </row>
@@ -557,7 +543,6 @@
         <v>5000</v>
       </c>
       <c r="D10">
-        <f>C14/2</f>
         <v>30000</v>
       </c>
     </row>
@@ -572,7 +557,6 @@
         <v>5000</v>
       </c>
       <c r="D11">
-        <f>C14/2</f>
         <v>30000</v>
       </c>
     </row>
@@ -587,13 +571,12 @@
         <v>5000</v>
       </c>
       <c r="D12">
-        <f>C14/2</f>
         <v>30000</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13" s="1">
         <v>954846351</v>
@@ -602,23 +585,7 @@
         <v>5000</v>
       </c>
       <c r="D13">
-        <f>C14/2</f>
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14">
-        <f>SUM(C2:C13)</f>
-        <v>60000</v>
-      </c>
-      <c r="D14" t="s">
-        <v>16</v>
+        <v>30000</v>
       </c>
     </row>
   </sheetData>

--- a/AO(uqubii).xlsx
+++ b/AO(uqubii).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Maqaa</t>
   </si>
@@ -38,16 +38,10 @@
     <t>Waliigal.Fudhatu</t>
   </si>
   <si>
-    <t>Barsiisaa Margsaa</t>
-  </si>
-  <si>
     <t>Lammii Diroo</t>
   </si>
   <si>
     <t>Walfaanaa Magarsaa</t>
-  </si>
-  <si>
-    <t>Geetuu Baqalaa</t>
   </si>
   <si>
     <t xml:space="preserve">Fayyisaa Badhuu </t>
@@ -393,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -425,7 +419,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="1">
-        <v>930308503</v>
+        <v>922956646</v>
       </c>
       <c r="C2">
         <v>5000</v>
@@ -439,7 +433,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="1">
-        <v>922956646</v>
+        <v>912861288</v>
       </c>
       <c r="C3">
         <v>5000</v>
@@ -450,10 +444,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1">
-        <v>912861288</v>
+        <v>9126995064</v>
       </c>
       <c r="C4">
         <v>5000</v>
@@ -464,10 +458,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1">
-        <v>912672957</v>
+        <v>977677737</v>
       </c>
       <c r="C5">
         <v>5000</v>
@@ -478,10 +472,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1">
-        <v>9126995064</v>
+        <v>913354650</v>
       </c>
       <c r="C6">
         <v>5000</v>
@@ -495,7 +489,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="1">
-        <v>977677737</v>
+        <v>910814723</v>
       </c>
       <c r="C7">
         <v>5000</v>
@@ -509,7 +503,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="1">
-        <v>913354650</v>
+        <v>928276274</v>
       </c>
       <c r="C8">
         <v>5000</v>
@@ -523,7 +517,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="1">
-        <v>910814723</v>
+        <v>912218826</v>
       </c>
       <c r="C9">
         <v>5000</v>
@@ -537,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="1">
-        <v>928276274</v>
+        <v>917372534</v>
       </c>
       <c r="C10">
         <v>5000</v>
@@ -548,43 +542,15 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1">
-        <v>912218826</v>
+        <v>954846351</v>
       </c>
       <c r="C11">
         <v>5000</v>
       </c>
       <c r="D11">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="1">
-        <v>917372534</v>
-      </c>
-      <c r="C12">
-        <v>5000</v>
-      </c>
-      <c r="D12">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="1">
-        <v>954846351</v>
-      </c>
-      <c r="C13">
-        <v>5000</v>
-      </c>
-      <c r="D13">
         <v>30000</v>
       </c>
     </row>

--- a/AO(uqubii).xlsx
+++ b/AO(uqubii).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Maqaa</t>
   </si>
@@ -56,13 +56,7 @@
     <t>Baqqalaa Tolasaa</t>
   </si>
   <si>
-    <t>Baqqalaa Barsiisaa</t>
-  </si>
-  <si>
     <t>Hannaa Addunyaa</t>
-  </si>
-  <si>
-    <t>Jabeessaa Caalaa</t>
   </si>
   <si>
     <t>Lalisee Magarsaa</t>
@@ -387,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -444,10 +438,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1">
-        <v>9126995064</v>
+        <v>977677737</v>
       </c>
       <c r="C4">
         <v>5000</v>
@@ -458,10 +452,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1">
-        <v>977677737</v>
+        <v>913354650</v>
       </c>
       <c r="C5">
         <v>5000</v>
@@ -472,10 +466,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1">
-        <v>913354650</v>
+        <v>910814723</v>
       </c>
       <c r="C6">
         <v>5000</v>
@@ -486,10 +480,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1">
-        <v>910814723</v>
+        <v>928276274</v>
       </c>
       <c r="C7">
         <v>5000</v>
@@ -500,10 +494,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1">
-        <v>928276274</v>
+        <v>917372534</v>
       </c>
       <c r="C8">
         <v>5000</v>
@@ -514,43 +508,15 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1">
-        <v>912218826</v>
+        <v>954846351</v>
       </c>
       <c r="C9">
         <v>5000</v>
       </c>
       <c r="D9">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="1">
-        <v>917372534</v>
-      </c>
-      <c r="C10">
-        <v>5000</v>
-      </c>
-      <c r="D10">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="1">
-        <v>954846351</v>
-      </c>
-      <c r="C11">
-        <v>5000</v>
-      </c>
-      <c r="D11">
         <v>30000</v>
       </c>
     </row>
